--- a/Referencias/Consultas Monitoreo BDI en Línea y APP/Mapeo_datos- DOMBDI-40 17032023 (003).xlsx
+++ b/Referencias/Consultas Monitoreo BDI en Línea y APP/Mapeo_datos- DOMBDI-40 17032023 (003).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emendez\Documents\GitHub\SENTINEL_SSIS\Referencias\Consultas Monitoreo BDI en Línea y APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18C5939-FDDA-44D2-B09C-024ACE6CD8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E991D0A-3D93-4200-8FBF-9339714A6113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{454208E8-9F71-406C-A21F-C69D515A917C}"/>
   </bookViews>
@@ -1769,7 +1769,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1993,6 +1993,24 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2038,19 +2056,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2060,21 +2065,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2083,13 +2083,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2477,42 +2476,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="105"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="88" t="s">
+      <c r="G2" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="89"/>
-      <c r="I2" s="90"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="108"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="91" t="s">
+      <c r="K2" s="109" t="s">
         <v>180</v>
       </c>
-      <c r="L2" s="92"/>
-      <c r="M2" s="93"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="111"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -2552,21 +2551,21 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="113" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="73"/>
@@ -3158,42 +3157,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="114" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="105"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="88" t="s">
+      <c r="G2" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="89"/>
-      <c r="I2" s="90"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="108"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="91" t="s">
+      <c r="K2" s="109" t="s">
         <v>180</v>
       </c>
-      <c r="L2" s="92"/>
-      <c r="M2" s="93"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="111"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -3233,21 +3232,21 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="115" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="99"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="117"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37"/>
@@ -6107,42 +6106,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="114" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="105"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="88" t="s">
+      <c r="G2" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="89"/>
-      <c r="I2" s="90"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="108"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="91" t="s">
+      <c r="K2" s="109" t="s">
         <v>180</v>
       </c>
-      <c r="L2" s="92"/>
-      <c r="M2" s="93"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="111"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -6182,21 +6181,21 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="115" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="99"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="117"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="67"/>
@@ -9090,42 +9089,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="114" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="105"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="88" t="s">
+      <c r="G2" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="89"/>
-      <c r="I2" s="90"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="108"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="91" t="s">
+      <c r="K2" s="109" t="s">
         <v>180</v>
       </c>
-      <c r="L2" s="92"/>
-      <c r="M2" s="93"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="111"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -9165,21 +9164,21 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="115" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="99"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="117"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="67"/>
@@ -10864,121 +10863,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="124" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="103"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="123"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="121" t="s">
         <v>323</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="103"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="123"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="105"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="107"/>
-      <c r="R4" s="105" t="s">
+      <c r="G4" s="118"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="120"/>
+      <c r="R4" s="118" t="s">
         <v>336</v>
       </c>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="106"/>
-      <c r="X4" s="106"/>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="107"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="119"/>
+      <c r="W4" s="119"/>
+      <c r="X4" s="119"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="120"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="123" t="s">
+      <c r="A5" s="97" t="s">
         <v>307</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="97" t="s">
         <v>308</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="97" t="s">
         <v>296</v>
       </c>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="97" t="s">
         <v>309</v>
       </c>
-      <c r="G5" s="116"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="118"/>
-      <c r="R5" s="116" t="s">
+      <c r="G5" s="94"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="96"/>
+      <c r="R5" s="94" t="s">
         <v>295</v>
       </c>
-      <c r="S5" s="117" t="s">
+      <c r="S5" s="95" t="s">
         <v>296</v>
       </c>
-      <c r="T5" s="117" t="s">
+      <c r="T5" s="95" t="s">
         <v>297</v>
       </c>
-      <c r="U5" s="117" t="s">
+      <c r="U5" s="95" t="s">
         <v>298</v>
       </c>
-      <c r="V5" s="117" t="s">
+      <c r="V5" s="95" t="s">
         <v>299</v>
       </c>
-      <c r="W5" s="117" t="s">
+      <c r="W5" s="95" t="s">
         <v>300</v>
       </c>
-      <c r="X5" s="117" t="s">
+      <c r="X5" s="95" t="s">
         <v>301</v>
       </c>
-      <c r="Y5" s="117" t="s">
+      <c r="Y5" s="95" t="s">
         <v>294</v>
       </c>
-      <c r="Z5" s="117" t="s">
+      <c r="Z5" s="95" t="s">
         <v>302</v>
       </c>
-      <c r="AA5" s="118" t="s">
+      <c r="AA5" s="96" t="s">
         <v>303</v>
       </c>
     </row>
@@ -10992,10 +10991,10 @@
       <c r="C6" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="D6" s="124">
+      <c r="D6" s="98">
         <v>45076.385007488425</v>
       </c>
-      <c r="G6" s="111"/>
+      <c r="G6" s="89"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
@@ -11004,8 +11003,8 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="126"/>
-      <c r="R6" s="111" t="s">
+      <c r="P6" s="100"/>
+      <c r="R6" s="89" t="s">
         <v>329</v>
       </c>
       <c r="S6" s="12" t="s">
@@ -11032,12 +11031,12 @@
       <c r="Z6" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="AA6" s="126" t="s">
+      <c r="AA6" s="100" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G7" s="111"/>
+      <c r="G7" s="89"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -11046,8 +11045,8 @@
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
-      <c r="P7" s="112"/>
-      <c r="R7" s="111" t="s">
+      <c r="P7" s="90"/>
+      <c r="R7" s="89" t="s">
         <v>331</v>
       </c>
       <c r="S7" s="12" t="s">
@@ -11074,12 +11073,12 @@
       <c r="Z7" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="AA7" s="112" t="s">
+      <c r="AA7" s="90" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G8" s="111"/>
+      <c r="G8" s="89"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -11088,8 +11087,8 @@
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
-      <c r="P8" s="112"/>
-      <c r="R8" s="111" t="s">
+      <c r="P8" s="90"/>
+      <c r="R8" s="89" t="s">
         <v>332</v>
       </c>
       <c r="S8" s="12" t="s">
@@ -11116,12 +11115,12 @@
       <c r="Z8" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="AA8" s="112" t="s">
+      <c r="AA8" s="90" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G9" s="111"/>
+      <c r="G9" s="89"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -11130,8 +11129,8 @@
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
-      <c r="P9" s="112"/>
-      <c r="R9" s="111" t="s">
+      <c r="P9" s="90"/>
+      <c r="R9" s="89" t="s">
         <v>333</v>
       </c>
       <c r="S9" s="12" t="s">
@@ -11158,12 +11157,12 @@
       <c r="Z9" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="AA9" s="112" t="s">
+      <c r="AA9" s="90" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G10" s="111"/>
+      <c r="G10" s="89"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -11172,8 +11171,8 @@
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
-      <c r="P10" s="112"/>
-      <c r="R10" s="111" t="s">
+      <c r="P10" s="90"/>
+      <c r="R10" s="89" t="s">
         <v>334</v>
       </c>
       <c r="S10" s="12" t="s">
@@ -11200,12 +11199,12 @@
       <c r="Z10" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="AA10" s="112" t="s">
+      <c r="AA10" s="90" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G11" s="111"/>
+      <c r="G11" s="89"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -11214,8 +11213,8 @@
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
-      <c r="P11" s="112"/>
-      <c r="R11" s="111" t="s">
+      <c r="P11" s="90"/>
+      <c r="R11" s="89" t="s">
         <v>335</v>
       </c>
       <c r="S11" s="12" t="s">
@@ -11242,116 +11241,116 @@
       <c r="Z11" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="AA11" s="112" t="s">
+      <c r="AA11" s="90" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="127" t="s">
         <v>324</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="121" t="s">
+      <c r="B14" s="128"/>
+      <c r="C14" s="125" t="s">
         <v>325</v>
       </c>
-      <c r="D14" s="122"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="107"/>
-      <c r="R14" s="105" t="s">
+      <c r="D14" s="126"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="120"/>
+      <c r="R14" s="118" t="s">
         <v>327</v>
       </c>
-      <c r="S14" s="106"/>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="106"/>
-      <c r="X14" s="106"/>
-      <c r="Y14" s="106"/>
-      <c r="Z14" s="106"/>
-      <c r="AA14" s="107"/>
+      <c r="S14" s="119"/>
+      <c r="T14" s="119"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="119"/>
+      <c r="W14" s="119"/>
+      <c r="X14" s="119"/>
+      <c r="Y14" s="119"/>
+      <c r="Z14" s="119"/>
+      <c r="AA14" s="120"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="123" t="s">
+      <c r="A15" s="97" t="s">
         <v>307</v>
       </c>
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="97" t="s">
         <v>308</v>
       </c>
-      <c r="C15" s="123" t="s">
+      <c r="C15" s="97" t="s">
         <v>296</v>
       </c>
-      <c r="D15" s="123" t="s">
+      <c r="D15" s="97" t="s">
         <v>309</v>
       </c>
-      <c r="G15" s="116" t="s">
+      <c r="G15" s="94" t="s">
         <v>295</v>
       </c>
-      <c r="H15" s="117" t="s">
+      <c r="H15" s="95" t="s">
         <v>296</v>
       </c>
-      <c r="I15" s="117" t="s">
+      <c r="I15" s="95" t="s">
         <v>297</v>
       </c>
-      <c r="J15" s="117" t="s">
+      <c r="J15" s="95" t="s">
         <v>298</v>
       </c>
-      <c r="K15" s="117" t="s">
+      <c r="K15" s="95" t="s">
         <v>299</v>
       </c>
-      <c r="L15" s="117" t="s">
+      <c r="L15" s="95" t="s">
         <v>300</v>
       </c>
-      <c r="M15" s="117" t="s">
+      <c r="M15" s="95" t="s">
         <v>301</v>
       </c>
-      <c r="N15" s="117" t="s">
+      <c r="N15" s="95" t="s">
         <v>294</v>
       </c>
-      <c r="O15" s="117" t="s">
+      <c r="O15" s="95" t="s">
         <v>302</v>
       </c>
-      <c r="P15" s="118" t="s">
+      <c r="P15" s="96" t="s">
         <v>303</v>
       </c>
-      <c r="R15" s="116" t="s">
+      <c r="R15" s="94" t="s">
         <v>295</v>
       </c>
-      <c r="S15" s="117" t="s">
+      <c r="S15" s="95" t="s">
         <v>296</v>
       </c>
-      <c r="T15" s="117" t="s">
+      <c r="T15" s="95" t="s">
         <v>297</v>
       </c>
-      <c r="U15" s="117" t="s">
+      <c r="U15" s="95" t="s">
         <v>298</v>
       </c>
-      <c r="V15" s="117" t="s">
+      <c r="V15" s="95" t="s">
         <v>299</v>
       </c>
-      <c r="W15" s="117" t="s">
+      <c r="W15" s="95" t="s">
         <v>300</v>
       </c>
-      <c r="X15" s="117" t="s">
+      <c r="X15" s="95" t="s">
         <v>301</v>
       </c>
-      <c r="Y15" s="117" t="s">
+      <c r="Y15" s="95" t="s">
         <v>294</v>
       </c>
-      <c r="Z15" s="117" t="s">
+      <c r="Z15" s="95" t="s">
         <v>302</v>
       </c>
-      <c r="AA15" s="118" t="s">
+      <c r="AA15" s="96" t="s">
         <v>303</v>
       </c>
     </row>
@@ -11365,10 +11364,10 @@
       <c r="C16" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="D16" s="124">
+      <c r="D16" s="98">
         <v>43978.807268634257</v>
       </c>
-      <c r="G16" s="111" t="s">
+      <c r="G16" s="89" t="s">
         <v>273</v>
       </c>
       <c r="H16" s="12" t="s">
@@ -11395,11 +11394,11 @@
       <c r="O16" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="P16" s="126" t="s">
+      <c r="P16" s="100" t="s">
         <v>277</v>
       </c>
-      <c r="Q16" s="125"/>
-      <c r="R16" s="111" t="s">
+      <c r="Q16" s="99"/>
+      <c r="R16" s="89" t="s">
         <v>273</v>
       </c>
       <c r="S16" s="12" t="s">
@@ -11426,12 +11425,12 @@
       <c r="Z16" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="AA16" s="126" t="s">
+      <c r="AA16" s="100" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G17" s="111" t="s">
+      <c r="G17" s="89" t="s">
         <v>278</v>
       </c>
       <c r="H17" s="12" t="s">
@@ -11458,10 +11457,10 @@
       <c r="O17" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="P17" s="112" t="s">
+      <c r="P17" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="R17" s="111" t="s">
+      <c r="R17" s="89" t="s">
         <v>278</v>
       </c>
       <c r="S17" s="12" t="s">
@@ -11488,12 +11487,12 @@
       <c r="Z17" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="AA17" s="112" t="s">
+      <c r="AA17" s="90" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G18" s="111" t="s">
+      <c r="G18" s="89" t="s">
         <v>282</v>
       </c>
       <c r="H18" s="12" t="s">
@@ -11520,10 +11519,10 @@
       <c r="O18" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="P18" s="112" t="s">
+      <c r="P18" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="R18" s="111" t="s">
+      <c r="R18" s="89" t="s">
         <v>282</v>
       </c>
       <c r="S18" s="12" t="s">
@@ -11550,12 +11549,12 @@
       <c r="Z18" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="AA18" s="112" t="s">
+      <c r="AA18" s="90" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G19" s="111" t="s">
+      <c r="G19" s="89" t="s">
         <v>283</v>
       </c>
       <c r="H19" s="12" t="s">
@@ -11582,10 +11581,10 @@
       <c r="O19" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="P19" s="112" t="s">
+      <c r="P19" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="R19" s="111" t="s">
+      <c r="R19" s="89" t="s">
         <v>283</v>
       </c>
       <c r="S19" s="12" t="s">
@@ -11612,12 +11611,12 @@
       <c r="Z19" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="AA19" s="112" t="s">
+      <c r="AA19" s="90" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G20" s="111" t="s">
+      <c r="G20" s="89" t="s">
         <v>284</v>
       </c>
       <c r="H20" s="12" t="s">
@@ -11644,10 +11643,10 @@
       <c r="O20" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="P20" s="112" t="s">
+      <c r="P20" s="90" t="s">
         <v>277</v>
       </c>
-      <c r="R20" s="111" t="s">
+      <c r="R20" s="89" t="s">
         <v>284</v>
       </c>
       <c r="S20" s="12" t="s">
@@ -11674,12 +11673,12 @@
       <c r="Z20" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="AA20" s="112" t="s">
+      <c r="AA20" s="90" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G21" s="111" t="s">
+      <c r="G21" s="89" t="s">
         <v>287</v>
       </c>
       <c r="H21" s="12" t="s">
@@ -11706,10 +11705,10 @@
       <c r="O21" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="P21" s="112" t="s">
+      <c r="P21" s="90" t="s">
         <v>277</v>
       </c>
-      <c r="R21" s="111" t="s">
+      <c r="R21" s="89" t="s">
         <v>287</v>
       </c>
       <c r="S21" s="12" t="s">
@@ -11736,12 +11735,12 @@
       <c r="Z21" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="AA21" s="112" t="s">
+      <c r="AA21" s="90" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G22" s="111" t="s">
+      <c r="G22" s="89" t="s">
         <v>288</v>
       </c>
       <c r="H22" s="12" t="s">
@@ -11768,10 +11767,10 @@
       <c r="O22" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="P22" s="112" t="s">
+      <c r="P22" s="90" t="s">
         <v>277</v>
       </c>
-      <c r="R22" s="111" t="s">
+      <c r="R22" s="89" t="s">
         <v>288</v>
       </c>
       <c r="S22" s="12" t="s">
@@ -11798,12 +11797,12 @@
       <c r="Z22" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="AA22" s="112" t="s">
+      <c r="AA22" s="90" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G23" s="111" t="s">
+      <c r="G23" s="89" t="s">
         <v>289</v>
       </c>
       <c r="H23" s="12" t="s">
@@ -11830,10 +11829,10 @@
       <c r="O23" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="P23" s="112" t="s">
+      <c r="P23" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="R23" s="111" t="s">
+      <c r="R23" s="89" t="s">
         <v>289</v>
       </c>
       <c r="S23" s="12" t="s">
@@ -11860,12 +11859,12 @@
       <c r="Z23" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="AA23" s="112" t="s">
+      <c r="AA23" s="90" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G24" s="111" t="s">
+      <c r="G24" s="89" t="s">
         <v>290</v>
       </c>
       <c r="H24" s="12" t="s">
@@ -11892,10 +11891,10 @@
       <c r="O24" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="P24" s="112" t="s">
+      <c r="P24" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="R24" s="111" t="s">
+      <c r="R24" s="89" t="s">
         <v>290</v>
       </c>
       <c r="S24" s="12" t="s">
@@ -11922,12 +11921,12 @@
       <c r="Z24" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="AA24" s="112" t="s">
+      <c r="AA24" s="90" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G25" s="111" t="s">
+      <c r="G25" s="89" t="s">
         <v>291</v>
       </c>
       <c r="H25" s="12" t="s">
@@ -11954,10 +11953,10 @@
       <c r="O25" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="P25" s="112" t="s">
+      <c r="P25" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="R25" s="111" t="s">
+      <c r="R25" s="89" t="s">
         <v>291</v>
       </c>
       <c r="S25" s="12" t="s">
@@ -11984,12 +11983,12 @@
       <c r="Z25" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="AA25" s="112" t="s">
+      <c r="AA25" s="90" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G26" s="111" t="s">
+      <c r="G26" s="89" t="s">
         <v>292</v>
       </c>
       <c r="H26" s="12" t="s">
@@ -12016,10 +12015,10 @@
       <c r="O26" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="P26" s="112" t="s">
+      <c r="P26" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="R26" s="111" t="s">
+      <c r="R26" s="89" t="s">
         <v>292</v>
       </c>
       <c r="S26" s="12" t="s">
@@ -12046,178 +12045,178 @@
       <c r="Z26" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="AA26" s="112" t="s">
+      <c r="AA26" s="90" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="113" t="s">
+      <c r="G27" s="91" t="s">
         <v>293</v>
       </c>
-      <c r="H27" s="114" t="s">
+      <c r="H27" s="92" t="s">
         <v>230</v>
       </c>
-      <c r="I27" s="114" t="s">
+      <c r="I27" s="92" t="s">
         <v>275</v>
       </c>
-      <c r="J27" s="114">
+      <c r="J27" s="92">
         <v>4</v>
       </c>
-      <c r="K27" s="114">
+      <c r="K27" s="92">
         <v>10</v>
       </c>
-      <c r="L27" s="114">
+      <c r="L27" s="92">
         <v>0</v>
       </c>
-      <c r="M27" s="114" t="s">
+      <c r="M27" s="92" t="s">
         <v>275</v>
       </c>
-      <c r="N27" s="114" t="s">
+      <c r="N27" s="92" t="s">
         <v>276</v>
       </c>
-      <c r="O27" s="114" t="s">
+      <c r="O27" s="92" t="s">
         <v>276</v>
       </c>
-      <c r="P27" s="115" t="s">
+      <c r="P27" s="93" t="s">
         <v>277</v>
       </c>
-      <c r="R27" s="113" t="s">
+      <c r="R27" s="91" t="s">
         <v>293</v>
       </c>
-      <c r="S27" s="114" t="s">
+      <c r="S27" s="92" t="s">
         <v>230</v>
       </c>
-      <c r="T27" s="114" t="s">
+      <c r="T27" s="92" t="s">
         <v>275</v>
       </c>
-      <c r="U27" s="114">
+      <c r="U27" s="92">
         <v>4</v>
       </c>
-      <c r="V27" s="114">
+      <c r="V27" s="92">
         <v>10</v>
       </c>
-      <c r="W27" s="114">
+      <c r="W27" s="92">
         <v>0</v>
       </c>
-      <c r="X27" s="114" t="s">
+      <c r="X27" s="92" t="s">
         <v>286</v>
       </c>
-      <c r="Y27" s="114" t="s">
+      <c r="Y27" s="92" t="s">
         <v>276</v>
       </c>
-      <c r="Z27" s="114" t="s">
+      <c r="Z27" s="92" t="s">
         <v>276</v>
       </c>
-      <c r="AA27" s="115" t="s">
+      <c r="AA27" s="93" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="119" t="s">
+      <c r="A29" s="127" t="s">
         <v>324</v>
       </c>
-      <c r="B29" s="120"/>
-      <c r="C29" s="121" t="s">
+      <c r="B29" s="128"/>
+      <c r="C29" s="125" t="s">
         <v>326</v>
       </c>
-      <c r="D29" s="122"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="106"/>
-      <c r="O29" s="106"/>
-      <c r="P29" s="107"/>
-      <c r="R29" s="105" t="s">
+      <c r="D29" s="126"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="119"/>
+      <c r="J29" s="119"/>
+      <c r="K29" s="119"/>
+      <c r="L29" s="119"/>
+      <c r="M29" s="119"/>
+      <c r="N29" s="119"/>
+      <c r="O29" s="119"/>
+      <c r="P29" s="120"/>
+      <c r="R29" s="118" t="s">
         <v>327</v>
       </c>
-      <c r="S29" s="106"/>
-      <c r="T29" s="106"/>
-      <c r="U29" s="106"/>
-      <c r="V29" s="106"/>
-      <c r="W29" s="106"/>
-      <c r="X29" s="106"/>
-      <c r="Y29" s="106"/>
-      <c r="Z29" s="106"/>
-      <c r="AA29" s="107"/>
+      <c r="S29" s="119"/>
+      <c r="T29" s="119"/>
+      <c r="U29" s="119"/>
+      <c r="V29" s="119"/>
+      <c r="W29" s="119"/>
+      <c r="X29" s="119"/>
+      <c r="Y29" s="119"/>
+      <c r="Z29" s="119"/>
+      <c r="AA29" s="120"/>
     </row>
     <row r="30" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="123" t="s">
+      <c r="A30" s="97" t="s">
         <v>307</v>
       </c>
-      <c r="B30" s="123" t="s">
+      <c r="B30" s="97" t="s">
         <v>308</v>
       </c>
-      <c r="C30" s="123" t="s">
+      <c r="C30" s="97" t="s">
         <v>296</v>
       </c>
-      <c r="D30" s="123" t="s">
+      <c r="D30" s="97" t="s">
         <v>309</v>
       </c>
-      <c r="G30" s="100" t="s">
+      <c r="G30" s="85" t="s">
         <v>295</v>
       </c>
-      <c r="H30" s="100" t="s">
+      <c r="H30" s="85" t="s">
         <v>296</v>
       </c>
-      <c r="I30" s="100" t="s">
+      <c r="I30" s="85" t="s">
         <v>297</v>
       </c>
-      <c r="J30" s="100" t="s">
+      <c r="J30" s="85" t="s">
         <v>298</v>
       </c>
-      <c r="K30" s="100" t="s">
+      <c r="K30" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="L30" s="100" t="s">
+      <c r="L30" s="85" t="s">
         <v>300</v>
       </c>
-      <c r="M30" s="100" t="s">
+      <c r="M30" s="85" t="s">
         <v>301</v>
       </c>
-      <c r="N30" s="100" t="s">
+      <c r="N30" s="85" t="s">
         <v>294</v>
       </c>
-      <c r="O30" s="100" t="s">
+      <c r="O30" s="85" t="s">
         <v>302</v>
       </c>
-      <c r="P30" s="100" t="s">
+      <c r="P30" s="85" t="s">
         <v>303</v>
       </c>
-      <c r="R30" s="127" t="s">
+      <c r="R30" s="101" t="s">
         <v>295</v>
       </c>
-      <c r="S30" s="128" t="s">
+      <c r="S30" s="85" t="s">
         <v>296</v>
       </c>
-      <c r="T30" s="128" t="s">
+      <c r="T30" s="85" t="s">
         <v>297</v>
       </c>
-      <c r="U30" s="128" t="s">
+      <c r="U30" s="85" t="s">
         <v>298</v>
       </c>
-      <c r="V30" s="128" t="s">
+      <c r="V30" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="W30" s="128" t="s">
+      <c r="W30" s="85" t="s">
         <v>300</v>
       </c>
-      <c r="X30" s="128" t="s">
+      <c r="X30" s="85" t="s">
         <v>301</v>
       </c>
-      <c r="Y30" s="128" t="s">
+      <c r="Y30" s="85" t="s">
         <v>294</v>
       </c>
-      <c r="Z30" s="128" t="s">
+      <c r="Z30" s="85" t="s">
         <v>302</v>
       </c>
-      <c r="AA30" s="129" t="s">
+      <c r="AA30" s="102" t="s">
         <v>303</v>
       </c>
     </row>
@@ -12231,72 +12230,72 @@
       <c r="C31" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="D31" s="124">
+      <c r="D31" s="98">
         <v>43978.807270486112</v>
       </c>
-      <c r="G31" s="108" t="s">
+      <c r="G31" s="86" t="s">
         <v>273</v>
       </c>
-      <c r="H31" s="109" t="s">
+      <c r="H31" s="87" t="s">
         <v>274</v>
       </c>
-      <c r="I31" s="109" t="s">
+      <c r="I31" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="J31" s="109">
+      <c r="J31" s="87">
         <v>8</v>
       </c>
-      <c r="K31" s="109">
+      <c r="K31" s="87">
         <v>19</v>
       </c>
-      <c r="L31" s="109">
+      <c r="L31" s="87">
         <v>0</v>
       </c>
-      <c r="M31" s="109" t="s">
+      <c r="M31" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="N31" s="109" t="s">
+      <c r="N31" s="87" t="s">
         <v>276</v>
       </c>
-      <c r="O31" s="109" t="s">
+      <c r="O31" s="87" t="s">
         <v>276</v>
       </c>
-      <c r="P31" s="110" t="s">
+      <c r="P31" s="88" t="s">
         <v>277</v>
       </c>
-      <c r="R31" s="108" t="s">
+      <c r="R31" s="86" t="s">
         <v>273</v>
       </c>
-      <c r="S31" s="109" t="s">
+      <c r="S31" s="87" t="s">
         <v>274</v>
       </c>
-      <c r="T31" s="109" t="s">
+      <c r="T31" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="U31" s="109">
+      <c r="U31" s="87">
         <v>8</v>
       </c>
-      <c r="V31" s="109">
+      <c r="V31" s="87">
         <v>19</v>
       </c>
-      <c r="W31" s="109">
+      <c r="W31" s="87">
         <v>0</v>
       </c>
-      <c r="X31" s="109" t="s">
+      <c r="X31" s="87" t="s">
         <v>286</v>
       </c>
-      <c r="Y31" s="109" t="s">
+      <c r="Y31" s="87" t="s">
         <v>276</v>
       </c>
-      <c r="Z31" s="109" t="s">
+      <c r="Z31" s="87" t="s">
         <v>276</v>
       </c>
-      <c r="AA31" s="110" t="s">
+      <c r="AA31" s="88" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G32" s="111" t="s">
+      <c r="G32" s="89" t="s">
         <v>311</v>
       </c>
       <c r="H32" s="12" t="s">
@@ -12323,10 +12322,10 @@
       <c r="O32" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="P32" s="112" t="s">
+      <c r="P32" s="90" t="s">
         <v>277</v>
       </c>
-      <c r="R32" s="111" t="s">
+      <c r="R32" s="89" t="s">
         <v>311</v>
       </c>
       <c r="S32" s="12" t="s">
@@ -12353,12 +12352,12 @@
       <c r="Z32" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="AA32" s="112" t="s">
+      <c r="AA32" s="90" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="33" spans="7:27" x14ac:dyDescent="0.25">
-      <c r="G33" s="111" t="s">
+      <c r="G33" s="89" t="s">
         <v>289</v>
       </c>
       <c r="H33" s="12" t="s">
@@ -12385,10 +12384,10 @@
       <c r="O33" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="P33" s="112" t="s">
+      <c r="P33" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="R33" s="111" t="s">
+      <c r="R33" s="89" t="s">
         <v>289</v>
       </c>
       <c r="S33" s="12" t="s">
@@ -12415,12 +12414,12 @@
       <c r="Z33" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="AA33" s="112" t="s">
+      <c r="AA33" s="90" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="34" spans="7:27" x14ac:dyDescent="0.25">
-      <c r="G34" s="111" t="s">
+      <c r="G34" s="89" t="s">
         <v>312</v>
       </c>
       <c r="H34" s="12" t="s">
@@ -12447,10 +12446,10 @@
       <c r="O34" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="P34" s="112" t="s">
+      <c r="P34" s="90" t="s">
         <v>277</v>
       </c>
-      <c r="R34" s="111" t="s">
+      <c r="R34" s="89" t="s">
         <v>312</v>
       </c>
       <c r="S34" s="12" t="s">
@@ -12477,12 +12476,12 @@
       <c r="Z34" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="AA34" s="112" t="s">
+      <c r="AA34" s="90" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="35" spans="7:27" x14ac:dyDescent="0.25">
-      <c r="G35" s="111" t="s">
+      <c r="G35" s="89" t="s">
         <v>313</v>
       </c>
       <c r="H35" s="12" t="s">
@@ -12509,10 +12508,10 @@
       <c r="O35" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="P35" s="112" t="s">
+      <c r="P35" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="R35" s="111" t="s">
+      <c r="R35" s="89" t="s">
         <v>313</v>
       </c>
       <c r="S35" s="12" t="s">
@@ -12539,12 +12538,12 @@
       <c r="Z35" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="AA35" s="112" t="s">
+      <c r="AA35" s="90" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="36" spans="7:27" x14ac:dyDescent="0.25">
-      <c r="G36" s="111" t="s">
+      <c r="G36" s="89" t="s">
         <v>314</v>
       </c>
       <c r="H36" s="12" t="s">
@@ -12571,10 +12570,10 @@
       <c r="O36" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="P36" s="112" t="s">
+      <c r="P36" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="R36" s="111" t="s">
+      <c r="R36" s="89" t="s">
         <v>314</v>
       </c>
       <c r="S36" s="12" t="s">
@@ -12601,12 +12600,12 @@
       <c r="Z36" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="AA36" s="112" t="s">
+      <c r="AA36" s="90" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="37" spans="7:27" x14ac:dyDescent="0.25">
-      <c r="G37" s="111" t="s">
+      <c r="G37" s="89" t="s">
         <v>315</v>
       </c>
       <c r="H37" s="12" t="s">
@@ -12633,10 +12632,10 @@
       <c r="O37" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="P37" s="112" t="s">
+      <c r="P37" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="R37" s="111" t="s">
+      <c r="R37" s="89" t="s">
         <v>315</v>
       </c>
       <c r="S37" s="12" t="s">
@@ -12663,12 +12662,12 @@
       <c r="Z37" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="AA37" s="112" t="s">
+      <c r="AA37" s="90" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="38" spans="7:27" x14ac:dyDescent="0.25">
-      <c r="G38" s="111" t="s">
+      <c r="G38" s="89" t="s">
         <v>316</v>
       </c>
       <c r="H38" s="12" t="s">
@@ -12695,10 +12694,10 @@
       <c r="O38" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="P38" s="112" t="s">
+      <c r="P38" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="R38" s="111" t="s">
+      <c r="R38" s="89" t="s">
         <v>316</v>
       </c>
       <c r="S38" s="12" t="s">
@@ -12725,12 +12724,12 @@
       <c r="Z38" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="AA38" s="112" t="s">
+      <c r="AA38" s="90" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="39" spans="7:27" x14ac:dyDescent="0.25">
-      <c r="G39" s="111" t="s">
+      <c r="G39" s="89" t="s">
         <v>317</v>
       </c>
       <c r="H39" s="12" t="s">
@@ -12757,10 +12756,10 @@
       <c r="O39" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="P39" s="112" t="s">
+      <c r="P39" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="R39" s="111" t="s">
+      <c r="R39" s="89" t="s">
         <v>317</v>
       </c>
       <c r="S39" s="12" t="s">
@@ -12787,12 +12786,12 @@
       <c r="Z39" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="AA39" s="112" t="s">
+      <c r="AA39" s="90" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="40" spans="7:27" x14ac:dyDescent="0.25">
-      <c r="G40" s="111" t="s">
+      <c r="G40" s="89" t="s">
         <v>318</v>
       </c>
       <c r="H40" s="12" t="s">
@@ -12819,10 +12818,10 @@
       <c r="O40" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="P40" s="112" t="s">
+      <c r="P40" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="R40" s="111" t="s">
+      <c r="R40" s="89" t="s">
         <v>318</v>
       </c>
       <c r="S40" s="12" t="s">
@@ -12849,12 +12848,12 @@
       <c r="Z40" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="AA40" s="112" t="s">
+      <c r="AA40" s="90" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="41" spans="7:27" x14ac:dyDescent="0.25">
-      <c r="G41" s="111" t="s">
+      <c r="G41" s="89" t="s">
         <v>319</v>
       </c>
       <c r="H41" s="12" t="s">
@@ -12881,10 +12880,10 @@
       <c r="O41" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="P41" s="112" t="s">
+      <c r="P41" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="R41" s="111" t="s">
+      <c r="R41" s="89" t="s">
         <v>319</v>
       </c>
       <c r="S41" s="12" t="s">
@@ -12911,12 +12910,12 @@
       <c r="Z41" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="AA41" s="112" t="s">
+      <c r="AA41" s="90" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="42" spans="7:27" x14ac:dyDescent="0.25">
-      <c r="G42" s="111" t="s">
+      <c r="G42" s="89" t="s">
         <v>320</v>
       </c>
       <c r="H42" s="12" t="s">
@@ -12943,10 +12942,10 @@
       <c r="O42" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="P42" s="112" t="s">
+      <c r="P42" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="R42" s="111" t="s">
+      <c r="R42" s="89" t="s">
         <v>320</v>
       </c>
       <c r="S42" s="12" t="s">
@@ -12973,84 +12972,84 @@
       <c r="Z42" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="AA42" s="112" t="s">
+      <c r="AA42" s="90" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="43" spans="7:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G43" s="113" t="s">
+      <c r="G43" s="91" t="s">
         <v>321</v>
       </c>
-      <c r="H43" s="114" t="s">
+      <c r="H43" s="92" t="s">
         <v>279</v>
       </c>
-      <c r="I43" s="114" t="s">
+      <c r="I43" s="92" t="s">
         <v>275</v>
       </c>
-      <c r="J43" s="114">
+      <c r="J43" s="92">
         <v>-1</v>
       </c>
-      <c r="K43" s="114" t="s">
+      <c r="K43" s="92" t="s">
         <v>280</v>
       </c>
-      <c r="L43" s="114" t="s">
+      <c r="L43" s="92" t="s">
         <v>280</v>
       </c>
-      <c r="M43" s="114" t="s">
+      <c r="M43" s="92" t="s">
         <v>286</v>
       </c>
-      <c r="N43" s="114" t="s">
+      <c r="N43" s="92" t="s">
         <v>275</v>
       </c>
-      <c r="O43" s="114" t="s">
+      <c r="O43" s="92" t="s">
         <v>286</v>
       </c>
-      <c r="P43" s="115" t="s">
+      <c r="P43" s="93" t="s">
         <v>281</v>
       </c>
-      <c r="R43" s="113" t="s">
+      <c r="R43" s="91" t="s">
         <v>321</v>
       </c>
-      <c r="S43" s="114" t="s">
+      <c r="S43" s="92" t="s">
         <v>279</v>
       </c>
-      <c r="T43" s="114" t="s">
+      <c r="T43" s="92" t="s">
         <v>275</v>
       </c>
-      <c r="U43" s="114">
+      <c r="U43" s="92">
         <v>-1</v>
       </c>
-      <c r="V43" s="114" t="s">
+      <c r="V43" s="92" t="s">
         <v>280</v>
       </c>
-      <c r="W43" s="114" t="s">
+      <c r="W43" s="92" t="s">
         <v>280</v>
       </c>
-      <c r="X43" s="114" t="s">
+      <c r="X43" s="92" t="s">
         <v>286</v>
       </c>
-      <c r="Y43" s="114" t="s">
+      <c r="Y43" s="92" t="s">
         <v>275</v>
       </c>
-      <c r="Z43" s="114" t="s">
+      <c r="Z43" s="92" t="s">
         <v>286</v>
       </c>
-      <c r="AA43" s="115" t="s">
+      <c r="AA43" s="93" t="s">
         <v>281</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="C14:P14"/>
+    <mergeCell ref="C29:P29"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="R14:AA14"/>
     <mergeCell ref="R29:AA29"/>
     <mergeCell ref="G4:P4"/>
     <mergeCell ref="R4:AA4"/>
     <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="C14:P14"/>
-    <mergeCell ref="C29:P29"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
